--- a/CashFlow/TWTR_cashflow.xlsx
+++ b/CashFlow/TWTR_cashflow.xlsx
@@ -808,22 +808,22 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>39094000.0</v>
+        <v>603382000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>18232000.0</v>
+        <v>781000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>9823000.0</v>
+        <v>748000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>28408000.0</v>
+        <v>546097000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>89440000.0</v>
+        <v>433375000.0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>55923000.0</v>
+        <v>201378000.0</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>77069000.0</v>
@@ -1514,23 +1514,21 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-52979000.0</v>
+        <v>-54318000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-63075000.0</v>
+        <v>-13251000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-56202000.0</v>
+        <v>-56341000.0</v>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="F13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="F13" s="0" t="n">
+        <v>-53702000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>-54538000.0</v>
@@ -2128,7 +2126,7 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>600147000.0</v>
+        <v>583378000.0</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>570931000.0</v>
@@ -3152,7 +3150,7 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>-374505200.0</v>
+        <v>-373166200.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>-637315200.0</v>
@@ -3164,7 +3162,7 @@
         <v>-177337800.0</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>-50219900.0</v>
+        <v>-51558900.0</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>-554060900.0</v>
@@ -3264,7 +3262,7 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>-361047000.0</v>
+        <v>-344278000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>-184379000.0</v>
@@ -3375,10 +3373,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>-344278000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>-184379000.0</v>
